--- a/biology/Zoologie/Cténuche_de_Virginie/Cténuche_de_Virginie.xlsx
+++ b/biology/Zoologie/Cténuche_de_Virginie/Cténuche_de_Virginie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ct%C3%A9nuche_de_Virginie</t>
+          <t>Cténuche_de_Virginie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenucha virginica
 La Cténuche de Virginie (Ctenucha virginica) est une espèce de lépidoptères (papillons) américains de la famille des Erebidae et de la sous-famille des Arctiinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ct%C3%A9nuche_de_Virginie</t>
+          <t>Cténuche_de_Virginie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago de Ctenucha virginica est un papillon d'une envergure de 40 à 50 mm.
 Il ressemble au Cisseps à col orangé (Cisseps fulvicollis).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ct%C3%A9nuche_de_Virginie</t>
+          <t>Cténuche_de_Virginie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Distribution et biotopes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est actif dans les champs de mai à juillet en Amérique du Nord.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ct%C3%A9nuche_de_Virginie</t>
+          <t>Cténuche_de_Virginie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La chenille se nourrit sur différentes sortes de végétaux, comme les Iris et les Carex.
 			Chenille.
